--- a/data/minfin/24_questions.xlsx
+++ b/data/minfin/24_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Основные показатели  деятельности негосударственных пенсионных фондов по обязательному пенсионному страхованию за 3 месяца 2017 года</t>
-  </si>
-  <si>
-    <t>opd_NPF_OPS_2017.xlsx</t>
   </si>
   <si>
     <t>Какова доходность инвестирования средств пенсионных накоплений в управляющих компанияхв 2017 году?</t>
@@ -193,21 +190,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">reestr_fondov-uchastnikov_2017-07-18.xlsx; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>spisok_iskluchenih_fondov_2017-07-18.pdf</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Реестр негосударственных пенсионных фондов – участников системы гарантирования прав застрахованных лиц на 18.07.2017;  П</t>
     </r>
     <r>
@@ -219,22 +201,6 @@
         <charset val="204"/>
       </rPr>
       <t>еречень негосударственных пенсионных фондов, исключенных из системы гарантирования прав застрахованных лиц на 18.07.2017</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">doh_sovokup_1kv2017.xls; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>doh_sovokup_1kv_sortirovka_2017.pdf</t>
     </r>
   </si>
   <si>
@@ -262,12 +228,46 @@
       <t>да</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reestr_fondov-uchastnikov_2017-07-18.pdf; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>spisok_iskluchenih_fondov_2017-07-18.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>opd_NPF_OPS_2017.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">doh_sovokup_1kv2017.pdf; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>doh_sovokup_1kv_sortirovka_2017.pdf</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,24 +694,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
@@ -728,7 +728,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="126">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -790,7 +790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="126">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -801,7 +801,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>31</v>
@@ -813,13 +813,13 @@
         <v>24</v>
       </c>
       <c r="J3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="128.25" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -830,7 +830,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>36</v>
@@ -842,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="297" customHeight="1">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -853,7 +853,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>38</v>
@@ -868,24 +868,24 @@
         <v>39</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="320.25" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="320.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>29</v>
@@ -894,96 +894,96 @@
         <v>26</v>
       </c>
       <c r="J6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1">
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1">
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1">
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>

--- a/data/minfin/24_questions.xlsx
+++ b/data/minfin/24_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -78,17 +78,6 @@
     <t>Права граждан, права, граждане, накопительная пенсия, формирующие</t>
   </si>
   <si>
-    <t>Граждане, формирующие накопительную пенсию, имеют право отказаться от формирования накопительной пенсии и направить шесть процентов индивидуальной части тарифа страхового взноса на формирование страховой пенсии</t>
-  </si>
-  <si>
-    <t>Права и обязанности граждан по формированию накопительной части пенсии регулируются Федеральным законом «Об обязательном пенсионном страховании в Российской Федерации» от 15.12.2001 № 167-ФЗ.
-Граждане 1967 года рождения и моложе, формирующие накопительную пенсию, имеют право:
-- имеют право отказаться от формирования накопительной пенсии и направить 6% индивидуальной части тарифа страхового взноса на формирование страховой пенсии;
-- выбирать страховщика либо управляющего активами;
-- получать информацию о формировании и инвестировании средств пенсионных накоплений;
-- назначать и получать выплаты за счет средств пенсионных накоплений</t>
-  </si>
-  <si>
     <t>Права граждан Российской Федерации по формированию накопительной пенсии</t>
   </si>
   <si>
@@ -144,6 +133,9 @@
   </si>
   <si>
     <t>Основные показатели  деятельности негосударственных пенсионных фондов по обязательному пенсионному страхованию за 3 месяца 2017 года</t>
+  </si>
+  <si>
+    <t>opd_NPF_OPS_2017.xlsx</t>
   </si>
   <si>
     <t>Какова доходность инвестирования средств пенсионных накоплений в управляющих компанияхв 2017 году?</t>
@@ -190,6 +182,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">reestr_fondov-uchastnikov_2017-07-18.xlsx; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>spisok_iskluchenih_fondov_2017-07-18.pdf</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Реестр негосударственных пенсионных фондов – участников системы гарантирования прав застрахованных лиц на 18.07.2017;  П</t>
     </r>
     <r>
@@ -201,6 +208,22 @@
         <charset val="204"/>
       </rPr>
       <t>еречень негосударственных пенсионных фондов, исключенных из системы гарантирования прав застрахованных лиц на 18.07.2017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">doh_sovokup_1kv2017.xls; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>doh_sovokup_1kv_sortirovka_2017.pdf</t>
     </r>
   </si>
   <si>
@@ -229,45 +252,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">reestr_fondov-uchastnikov_2017-07-18.pdf; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>spisok_iskluchenih_fondov_2017-07-18.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>opd_NPF_OPS_2017.pdf</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">doh_sovokup_1kv2017.pdf; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>doh_sovokup_1kv_sortirovka_2017.pdf</t>
-    </r>
+    <t>Граждане, в пользу которых страховые взносы на обязательное пенсионное страхование впервые уплачиваются после первого января две тысячи четырнадцатого года, имеют право в течение пяти лет с момента первого начисления страховых взносов изменить вариант своего пенсионного обеспечения, направив на финансирование накопительной пенсии шесть процентов индивидуальной части тарифа страхового взноса</t>
+  </si>
+  <si>
+    <t>Права и обязанности граждан по формированию накопительной части пенсии регулируются Федеральным законом «Об обязательном пенсионном страховании в Российской Федерации» от 15.12.2001 № 167-ФЗ.
+Граждане 1967 года рождения и моложе при формировании и инвестировании средств пенсионных накоплений имеют право:
+-  в течение 5 лет с момента первого начисления страховых взносов изменить вариант своего пенсионного обеспечения, направив на финансирование накопительной пенсии 6% индивидуальной части тарифа страхового взноса (в случае, если в пользу таких граждан страховые взносы на обязательное пенсионное страхование впервые уплачиваются после 1 января 2014 года). Если гражданин не достиг возраста 23 лет, возможность выбора продляется до окончания года, в котором ему исполняется 23 года;
+- выбирать страховщика либо управляющего активами;
+- получать информацию о формировании и инвестировании средств пенсионных накоплений;
+- назначать и получать выплаты за счет средств пенсионных накоплений</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,7 +313,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -382,6 +388,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,24 +706,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
@@ -728,7 +740,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -766,224 +778,224 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="189">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>20</v>
+      <c r="C2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>47</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="128.25" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="297" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="320.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="320.25" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1">
       <c r="A7" s="8"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1">
       <c r="A8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1">
       <c r="A9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1">
       <c r="A10" s="8"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="5" customFormat="1">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="5" customFormat="1">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" s="8"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1">
       <c r="A14" s="8"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="5" customFormat="1">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="5" customFormat="1">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="5" customFormat="1">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="5" customFormat="1">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="5" customFormat="1">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="5" customFormat="1">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="5" customFormat="1">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="5" customFormat="1">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="5" customFormat="1">
       <c r="A31" s="8"/>
     </row>
   </sheetData>

--- a/data/minfin/24_questions.xlsx
+++ b/data/minfin/24_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Основные показатели  деятельности негосударственных пенсионных фондов по обязательному пенсионному страхованию за 3 месяца 2017 года</t>
-  </si>
-  <si>
-    <t>opd_NPF_OPS_2017.xlsx</t>
   </si>
   <si>
     <t>Какова доходность инвестирования средств пенсионных накоплений в управляющих компанияхв 2017 году?</t>
@@ -182,21 +179,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">reestr_fondov-uchastnikov_2017-07-18.xlsx; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>spisok_iskluchenih_fondov_2017-07-18.pdf</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Реестр негосударственных пенсионных фондов – участников системы гарантирования прав застрахованных лиц на 18.07.2017;  П</t>
     </r>
     <r>
@@ -208,22 +190,6 @@
         <charset val="204"/>
       </rPr>
       <t>еречень негосударственных пенсионных фондов, исключенных из системы гарантирования прав застрахованных лиц на 18.07.2017</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">doh_sovokup_1kv2017.xls; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>doh_sovokup_1kv_sortirovka_2017.pdf</t>
     </r>
   </si>
   <si>
@@ -262,12 +228,46 @@
 - получать информацию о формировании и инвестировании средств пенсионных накоплений;
 - назначать и получать выплаты за счет средств пенсионных накоплений</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reestr_fondov-uchastnikov_2017-07-18.pdf; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>spisok_iskluchenih_fondov_2017-07-18.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>opd_NPF_OPS_2017.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">doh_sovokup_1kv2017.pdf; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>doh_sovokup_1kv_sortirovka_2017.pdf</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,24 +706,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
@@ -740,7 +740,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -778,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -786,10 +786,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
@@ -802,7 +802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>29</v>
@@ -825,13 +825,13 @@
         <v>22</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="128.25" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -842,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>34</v>
@@ -854,7 +854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="297" customHeight="1">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -865,7 +865,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>36</v>
@@ -880,24 +880,24 @@
         <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="320.25" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="320.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -906,96 +906,96 @@
         <v>24</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1">
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1">
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1">
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>

--- a/data/minfin/24_questions.xlsx
+++ b/data/minfin/24_questions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -135,17 +135,10 @@
     <t>Основные показатели  деятельности негосударственных пенсионных фондов по обязательному пенсионному страхованию за 3 месяца 2017 года</t>
   </si>
   <si>
-    <t>Какова доходность инвестирования средств пенсионных накоплений в управляющих компанияхв 2017 году?</t>
-  </si>
-  <si>
     <t>доходность, инвестирования, средств, пенсионных накоплений, в управляющей компании, 2017</t>
   </si>
   <si>
     <t>Доходность инвестирования средств пенсионных накоплений в управляющих компаниях в две тысячи семнадцатом году варьирует в диапазоне: от пятнадцати целых тридцати одной сотой процента годовых (в АТОН-МЕНЕДЖМЕНТ УК) до минус двадцати двух целых шестидесяти двухсотых процента годовых (в ФИНАМ МЕНЕДЖМЕНТ УК)</t>
-  </si>
-  <si>
-    <t>В 2017 году деятельность по обязательному пенсионному страхованию осуществляют 38 негосударственных пенсионных фондов: «НПФ Сбербанка», «Будущее», «ВТБ Пенсионный фонд», «НПФ Сургутнефтегаз» и т.д.
-Реестр негосударственных пенсионных фондов – участников системы гарантирования прав застрахованных лиц, опубликован на официальном сайте Агентства по страхованию вкладов</t>
   </si>
   <si>
     <t>Доходность негосударственных пенсионных фондов за 3 месяца 2017 года варьирует в достаточно широком диапазоне: от 12,26% годовых (в закрытом акционерном обществе «КИТФинанс негосударственный пенсионный фонд») до -5,41% годовых (в акционерном обществе «Негосударственный пенсионный фонд электроэнергетики»). 
@@ -262,11 +255,18 @@
       <t>doh_sovokup_1kv_sortirovka_2017.pdf</t>
     </r>
   </si>
+  <si>
+    <t>В 2017 году деятельность по обязательному пенсионному страхованию осуществляют 38 негосударственных пенсионных фондов: «НПФ Сбербанка», «Будущее», «ВТБ Пенсионный фонд», «НПФ Сургутнефтегаз» и т. д.
+Реестр негосударственных пенсионных фондов – участников системы гарантирования прав застрахованных лиц опубликован на официальном сайте Агентства по страхованию вкладов</t>
+  </si>
+  <si>
+    <t>Какова доходность инвестирования средств пенсионных накоплений в управляющих компаниях в 2017 году?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,10 +717,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -786,10 +786,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>18</v>
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>29</v>
@@ -825,10 +825,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>34</v>
@@ -865,7 +865,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>36</v>
@@ -880,7 +880,7 @@
         <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="320.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -888,16 +888,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -906,10 +906,10 @@
         <v>24</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
